--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Houston_Rockets__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Houston_Rockets__.xlsx
@@ -588,79 +588,79 @@
         <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>729</v>
+        <v>763</v>
       </c>
       <c r="G2" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H2" t="n">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="I2" t="n">
-        <v>0.466</v>
+        <v>0.458</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L2" t="n">
-        <v>0.368</v>
+        <v>0.357</v>
       </c>
       <c r="M2" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="N2" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="O2" t="n">
-        <v>0.517</v>
+        <v>0.512</v>
       </c>
       <c r="P2" t="n">
-        <v>0.529</v>
+        <v>0.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R2" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S2" t="n">
-        <v>0.574</v>
+        <v>0.573</v>
       </c>
       <c r="T2" t="n">
+        <v>45</v>
+      </c>
+      <c r="U2" t="n">
+        <v>226</v>
+      </c>
+      <c r="V2" t="n">
+        <v>271</v>
+      </c>
+      <c r="W2" t="n">
+        <v>55</v>
+      </c>
+      <c r="X2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z2" t="n">
         <v>42</v>
       </c>
-      <c r="U2" t="n">
-        <v>214</v>
-      </c>
-      <c r="V2" t="n">
-        <v>256</v>
-      </c>
-      <c r="W2" t="n">
-        <v>52</v>
-      </c>
-      <c r="X2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>41</v>
-      </c>
       <c r="AA2" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB2" t="n">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="G3" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H3" t="n">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="I3" t="n">
-        <v>0.502</v>
+        <v>0.498</v>
       </c>
       <c r="J3" t="n">
         <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L3" t="n">
-        <v>0.274</v>
+        <v>0.266</v>
       </c>
       <c r="M3" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N3" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O3" t="n">
-        <v>0.589</v>
+        <v>0.586</v>
       </c>
       <c r="P3" t="n">
-        <v>0.54</v>
+        <v>0.534</v>
       </c>
       <c r="Q3" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R3" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="S3" t="n">
-        <v>0.782</v>
+        <v>0.734</v>
       </c>
       <c r="T3" t="n">
+        <v>49</v>
+      </c>
+      <c r="U3" t="n">
+        <v>104</v>
+      </c>
+      <c r="V3" t="n">
+        <v>153</v>
+      </c>
+      <c r="W3" t="n">
+        <v>68</v>
+      </c>
+      <c r="X3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="n">
         <v>48</v>
       </c>
-      <c r="U3" t="n">
-        <v>103</v>
-      </c>
-      <c r="V3" t="n">
-        <v>151</v>
-      </c>
-      <c r="W3" t="n">
-        <v>63</v>
-      </c>
-      <c r="X3" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>46</v>
-      </c>
       <c r="AA3" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="n">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
@@ -764,79 +764,79 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H4" t="n">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="I4" t="n">
-        <v>0.467</v>
+        <v>0.478</v>
       </c>
       <c r="J4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L4" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="M4" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5</v>
+        <v>0.517</v>
       </c>
       <c r="P4" t="n">
-        <v>0.575</v>
+        <v>0.584</v>
       </c>
       <c r="Q4" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R4" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S4" t="n">
-        <v>0.714</v>
+        <v>0.731</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W4" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>281</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
@@ -1028,64 +1028,64 @@
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="G7" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I7" t="n">
-        <v>0.488</v>
+        <v>0.485</v>
       </c>
       <c r="J7" t="n">
         <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" t="n">
-        <v>0.37</v>
+        <v>0.357</v>
       </c>
       <c r="M7" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N7" t="n">
+        <v>106</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>56</v>
+      </c>
+      <c r="R7" t="n">
+        <v>79</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="T7" t="n">
+        <v>32</v>
+      </c>
+      <c r="U7" t="n">
+        <v>70</v>
+      </c>
+      <c r="V7" t="n">
         <v>102</v>
       </c>
-      <c r="O7" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.527</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>54</v>
-      </c>
-      <c r="R7" t="n">
-        <v>77</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="T7" t="n">
-        <v>31</v>
-      </c>
-      <c r="U7" t="n">
-        <v>69</v>
-      </c>
-      <c r="V7" t="n">
-        <v>100</v>
-      </c>
       <c r="W7" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X7" t="n">
         <v>25</v>
@@ -1097,10 +1097,10 @@
         <v>40</v>
       </c>
       <c r="AA7" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AB7" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
@@ -1204,79 +1204,79 @@
         <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G9" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H9" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I9" t="n">
-        <v>0.552</v>
+        <v>0.545</v>
       </c>
       <c r="J9" t="n">
         <v>9</v>
       </c>
       <c r="K9" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L9" t="n">
-        <v>0.29</v>
+        <v>0.273</v>
       </c>
       <c r="M9" t="n">
+        <v>57</v>
+      </c>
+      <c r="N9" t="n">
+        <v>88</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>17</v>
+      </c>
+      <c r="R9" t="n">
+        <v>27</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15</v>
+      </c>
+      <c r="U9" t="n">
         <v>55</v>
       </c>
-      <c r="N9" t="n">
-        <v>85</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>15</v>
-      </c>
-      <c r="R9" t="n">
-        <v>23</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="T9" t="n">
-        <v>14</v>
-      </c>
-      <c r="U9" t="n">
-        <v>54</v>
-      </c>
       <c r="V9" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X9" t="n">
         <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB9" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
@@ -1292,79 +1292,79 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="G10" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H10" t="n">
+        <v>93</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="J10" t="n">
+        <v>32</v>
+      </c>
+      <c r="K10" t="n">
         <v>80</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="J10" t="n">
-        <v>29</v>
-      </c>
-      <c r="K10" t="n">
-        <v>69</v>
-      </c>
       <c r="L10" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
-        <v>0.909</v>
+        <v>0.923</v>
       </c>
       <c r="P10" t="n">
-        <v>0.669</v>
+        <v>0.645</v>
       </c>
       <c r="Q10" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="R10" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="T10" t="n">
         <v>8</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V10" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="W10" t="n">
         <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z10" t="n">
         <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1380,79 +1380,79 @@
         <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="G11" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H11" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I11" t="n">
-        <v>0.362</v>
+        <v>0.375</v>
       </c>
       <c r="J11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K11" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L11" t="n">
-        <v>0.333</v>
+        <v>0.337</v>
       </c>
       <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>18</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="Q11" t="n">
         <v>8</v>
       </c>
-      <c r="N11" t="n">
-        <v>16</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>7</v>
-      </c>
       <c r="R11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S11" t="n">
-        <v>0.875</v>
+        <v>0.889</v>
       </c>
       <c r="T11" t="n">
         <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V11" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="W11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
@@ -1468,79 +1468,79 @@
         <v>34</v>
       </c>
       <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>258</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27</v>
+      </c>
+      <c r="H12" t="n">
+        <v>63</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="J12" t="n">
+        <v>18</v>
+      </c>
+      <c r="K12" t="n">
+        <v>44</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9</v>
+      </c>
+      <c r="N12" t="n">
         <v>19</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>238</v>
-      </c>
-      <c r="G12" t="n">
-        <v>24</v>
-      </c>
-      <c r="H12" t="n">
-        <v>59</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="J12" t="n">
-        <v>17</v>
-      </c>
-      <c r="K12" t="n">
-        <v>42</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7</v>
-      </c>
-      <c r="N12" t="n">
-        <v>17</v>
-      </c>
       <c r="O12" t="n">
-        <v>0.412</v>
+        <v>0.474</v>
       </c>
       <c r="P12" t="n">
-        <v>0.551</v>
+        <v>0.571</v>
       </c>
       <c r="Q12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S12" t="n">
-        <v>0.882</v>
+        <v>0.889</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V12" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="W12" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
         <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -1644,31 +1644,31 @@
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G14" t="n">
         <v>23</v>
       </c>
       <c r="H14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" t="n">
-        <v>0.442</v>
+        <v>0.434</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L14" t="n">
-        <v>0.077</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="M14" t="n">
         <v>22</v>
@@ -1680,7 +1680,7 @@
         <v>0.5639999999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>0.452</v>
+        <v>0.443</v>
       </c>
       <c r="Q14" t="n">
         <v>14</v>
@@ -1692,13 +1692,13 @@
         <v>0.636</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V14" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W14" t="n">
         <v>10</v>
@@ -1713,7 +1713,7 @@
         <v>8</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB14" t="n">
         <v>61</v>
@@ -1732,43 +1732,43 @@
         <v>20</v>
       </c>
       <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>135</v>
+      </c>
+      <c r="G15" t="n">
+        <v>23</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
         <v>15</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>112</v>
-      </c>
-      <c r="G15" t="n">
-        <v>16</v>
-      </c>
-      <c r="H15" t="n">
-        <v>43</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11</v>
-      </c>
       <c r="L15" t="n">
-        <v>0.364</v>
+        <v>0.533</v>
       </c>
       <c r="M15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O15" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="P15" t="n">
-        <v>0.419</v>
+        <v>0.54</v>
       </c>
       <c r="Q15" t="n">
         <v>7</v>
@@ -1780,31 +1780,31 @@
         <v>0.778</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
+        <v>12</v>
+      </c>
+      <c r="V15" t="n">
+        <v>17</v>
+      </c>
+      <c r="W15" t="n">
+        <v>14</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
         <v>11</v>
       </c>
-      <c r="V15" t="n">
-        <v>15</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="AA15" t="n">
         <v>12</v>
       </c>
-      <c r="X15" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>9</v>
-      </c>
       <c r="AB15" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -1976,77 +1976,77 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>5545</v>
+        <v>5785</v>
       </c>
       <c r="G18" t="n">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="H18" t="n">
-        <v>1977</v>
+        <v>2058</v>
       </c>
       <c r="I18" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="J18" t="n">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="K18" t="n">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="L18" t="n">
         <v>0.338</v>
       </c>
       <c r="M18" t="n">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="N18" t="n">
-        <v>1114</v>
+        <v>1154</v>
       </c>
       <c r="O18" t="n">
-        <v>0.522</v>
+        <v>0.526</v>
       </c>
       <c r="P18" t="n">
-        <v>0.515</v>
+        <v>0.518</v>
       </c>
       <c r="Q18" t="n">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="R18" t="n">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="S18" t="n">
-        <v>0.707</v>
+        <v>0.706</v>
       </c>
       <c r="T18" t="n">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="U18" t="n">
-        <v>817</v>
+        <v>846</v>
       </c>
       <c r="V18" t="n">
-        <v>1033</v>
+        <v>1071</v>
       </c>
       <c r="W18" t="n">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="X18" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Y18" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Z18" t="n">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="AA18" t="n">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="AB18" t="n">
-        <v>2419</v>
+        <v>2533</v>
       </c>
     </row>
   </sheetData>
